--- a/Функциональные требования,ТС и Bug.xlsx
+++ b/Функциональные требования,ТС и Bug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Тестировщик обучение\Итоговое аттестационное задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C35ADCE-0DAF-4E09-AF3D-1562AC0F9F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0ABC8C-0EBF-4F9E-A1ED-747CFCFC555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональные требования" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>failed</t>
   </si>
   <si>
-    <t>Вводимые данные должны быть логичными, и не допускать ввода не логичных данных для отправки на составления гороскопа</t>
-  </si>
-  <si>
     <t>Работает навигация по сайту</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
   </si>
   <si>
     <t>Поле ввода "Место проживания" заполнено "Санкт-Петербург" и всплывающий переход на карты Google</t>
-  </si>
-  <si>
-    <t>Вводимые данные должны быть логичными, функционал работать, и не допускать ввода не логичных данных для отправки на составления гороскопа</t>
   </si>
   <si>
     <t>ТС5.1.1</t>
@@ -952,6 +946,12 @@
   </si>
   <si>
     <t>bug8.docx</t>
+  </si>
+  <si>
+    <t>Вводимые данные должны быть логичными, и не допускать ввода не логичных данных для отправки на составление гороскопа</t>
+  </si>
+  <si>
+    <t>Вводимые данные должны быть логичными, функционал работать, и не допускать ввода не логичных данных для отправки на составление гороскопа</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1703,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -1742,16 +1742,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -1782,16 +1782,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
@@ -1802,10 +1802,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -1816,10 +1816,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>3</v>
@@ -1830,10 +1830,10 @@
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>3</v>
@@ -1844,16 +1844,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
@@ -1864,10 +1864,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>3</v>
@@ -1878,10 +1878,10 @@
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
@@ -1892,10 +1892,10 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
@@ -1906,16 +1906,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
@@ -1977,106 +1977,106 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="18">
         <v>2958465</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" s="18">
         <v>2958465</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="19">
         <v>99</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2109,45 +2109,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -2155,22 +2155,22 @@
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
@@ -2187,9 +2187,9 @@
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,51 +2206,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'TC3'!A3</f>
@@ -2260,27 +2260,27 @@
         <v>1</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>'TC3'!A4</f>
@@ -2290,27 +2290,27 @@
         <v>2</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>'TC3'!A15</f>
@@ -2320,25 +2320,25 @@
         <v>3</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>'TC3'!A16</f>
@@ -2348,25 +2348,25 @@
         <v>4</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>'TC3'!A18</f>
@@ -2376,25 +2376,25 @@
         <v>5</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>'TC4'!A8</f>
@@ -2404,27 +2404,27 @@
         <v>6</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>'TC4'!A9</f>
@@ -2434,25 +2434,25 @@
         <v>7</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>'TC4'!A10</f>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2516,26 +2516,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2565,45 +2565,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="3" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
@@ -2656,34 +2656,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2714,45 +2714,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -2760,22 +2760,22 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
@@ -2783,22 +2783,22 @@
     </row>
     <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -2827,171 +2827,171 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3023,45 +3023,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -3069,22 +3069,22 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -3092,22 +3092,22 @@
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>3</v>
@@ -3115,22 +3115,22 @@
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>2</v>
@@ -3138,22 +3138,22 @@
     </row>
     <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>2</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>2</v>
@@ -3184,22 +3184,22 @@
     </row>
     <row r="8" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>2</v>
@@ -3207,22 +3207,22 @@
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>2</v>
@@ -3230,22 +3230,22 @@
     </row>
     <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>2</v>
@@ -3253,22 +3253,22 @@
     </row>
     <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>2</v>
@@ -3276,22 +3276,22 @@
     </row>
     <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>2</v>
@@ -3299,22 +3299,22 @@
     </row>
     <row r="13" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>2</v>
@@ -3322,22 +3322,22 @@
     </row>
     <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>2</v>
@@ -3345,22 +3345,22 @@
     </row>
     <row r="15" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>3</v>
@@ -3368,22 +3368,22 @@
     </row>
     <row r="16" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>3</v>
@@ -3391,22 +3391,22 @@
     </row>
     <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>2</v>
@@ -3414,22 +3414,22 @@
     </row>
     <row r="18" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>3</v>
@@ -3466,106 +3466,106 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="19">
         <v>74</v>
@@ -3573,18 +3573,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3617,45 +3617,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -3663,22 +3663,22 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
@@ -3686,22 +3686,22 @@
     </row>
     <row r="4" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -3709,22 +3709,22 @@
     </row>
     <row r="5" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>2</v>
@@ -3732,22 +3732,22 @@
     </row>
     <row r="6" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>2</v>
@@ -3755,22 +3755,22 @@
     </row>
     <row r="7" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>2</v>
@@ -3778,22 +3778,22 @@
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>3</v>
@@ -3801,22 +3801,22 @@
     </row>
     <row r="9" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3</v>
@@ -3824,22 +3824,22 @@
     </row>
     <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
